--- a/01-data/profitCalc_export.xlsx
+++ b/01-data/profitCalc_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1049"/>
+  <dimension ref="A1:AA1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89562,92 +89562,7 @@
         <v>2308</v>
       </c>
       <c r="AA1048" t="n">
-        <v>32.67660522460938</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="B1049" t="n">
-        <v>176.75</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>178.7299957275391</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>176.0700073242188</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>178.2200012207031</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>31956200</v>
-      </c>
-      <c r="G1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>13.10999965667725</v>
-      </c>
-      <c r="J1049" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K1049" t="n">
-        <v>13.50399990081787</v>
-      </c>
-      <c r="L1049" t="n">
-        <v>14.12733338673909</v>
-      </c>
-      <c r="M1049" t="n">
-        <v>175.2819976806641</v>
-      </c>
-      <c r="N1049" t="n">
-        <v>172.4913319905599</v>
-      </c>
-      <c r="O1049" t="n">
-        <v>57.02049452132566</v>
-      </c>
-      <c r="P1049" t="n">
-        <v>173.2255683971727</v>
-      </c>
-      <c r="Q1049" t="n">
-        <v>168.8423343026925</v>
-      </c>
-      <c r="R1049" t="n">
-        <v>4.383234094480258</v>
-      </c>
-      <c r="S1049" t="n">
-        <v>4.317044815631657</v>
-      </c>
-      <c r="T1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="U1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="V1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="W1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="X1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z1049" t="n">
-        <v>2308</v>
-      </c>
-      <c r="AA1049" t="n">
-        <v>411364.4394226074</v>
+        <v>407994.743927002</v>
       </c>
     </row>
   </sheetData>
